--- a/FUNCION HASH/RESULTADOS/target_facil/mining_global_sizes/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/target_facil/mining_global_sizes/resultados.xlsx
@@ -421,28 +421,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.9776E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>2.048E-05</v>
+        <v>2.0224E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>2.3552E-05</v>
+        <v>2.3424E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.9808E-05</v>
+        <v>3.8816E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>4.4032E-05</v>
+        <v>4.2784E-05</v>
       </c>
       <c r="G2" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>7.299200000000001E-05</v>
+        <v>7.168E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.000749568</v>
+        <v>0.0007486400000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -453,25 +453,25 @@
         <v>1.9456E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>1.9456E-05</v>
+        <v>2.0256E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>2.0512E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.2528E-05</v>
+        <v>2.2624E-05</v>
       </c>
       <c r="F3" s="1">
-        <v>4.4032E-05</v>
+        <v>4.4128E-05</v>
       </c>
       <c r="G3" s="1">
-        <v>4.4032E-05</v>
+        <v>4.400000000000001E-05</v>
       </c>
       <c r="H3" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000388096</v>
+        <v>0.000387872</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -479,25 +479,25 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9456E-05</v>
+        <v>1.9488E-05</v>
       </c>
       <c r="C4" s="1">
         <v>1.9456E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>1.952E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>2.0256E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>4.096E-05</v>
+        <v>3.9008E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>4.4032E-05</v>
+        <v>4.3712E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>4.4032E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
       <c r="I4" s="1">
         <v>0.000207872</v>
@@ -508,28 +508,28 @@
         <v>8</v>
       </c>
       <c r="B5" s="1">
-        <v>1.6544E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C5" s="1">
         <v>1.7408E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>1.7408E-05</v>
+        <v>1.712E-05</v>
       </c>
       <c r="E5" s="1">
-        <v>1.8208E-05</v>
+        <v>1.7184E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>2.2528E-05</v>
+        <v>2.2368E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>4.2656E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.1184E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>0.000116736</v>
+        <v>0.00011776</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -537,28 +537,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7408E-05</v>
+        <v>1.7376E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>1.7408E-05</v>
+        <v>1.664E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>1.7152E-05</v>
+        <v>1.6672E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>1.6544E-05</v>
+        <v>1.6672E-05</v>
       </c>
       <c r="F6" s="1">
-        <v>1.9776E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>4.3872E-05</v>
+        <v>4.7808E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>4.4032E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.475200000000001E-05</v>
+        <v>7.372800000000001E-05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -566,28 +566,28 @@
         <v>32</v>
       </c>
       <c r="B7" s="1">
+        <v>1.728E-05</v>
+      </c>
+      <c r="C7" s="1">
         <v>1.6384E-05</v>
       </c>
-      <c r="C7" s="1">
-        <v>1.7408E-05</v>
-      </c>
       <c r="D7" s="1">
-        <v>1.664E-05</v>
+        <v>1.6672E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>1.6384E-05</v>
+        <v>1.7056E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>1.9616E-05</v>
+        <v>1.9392E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>4.9888E-05</v>
+        <v>4.608000000000001E-05</v>
       </c>
       <c r="H7" s="1">
-        <v>5.2544E-05</v>
+        <v>5.4272E-05</v>
       </c>
       <c r="I7" s="1">
-        <v>5.5296E-05</v>
+        <v>5.536000000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -595,7 +595,7 @@
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7632E-05</v>
+        <v>1.7376E-05</v>
       </c>
       <c r="C8" s="1">
         <v>1.7216E-05</v>
@@ -604,19 +604,19 @@
         <v>1.7408E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>1.8432E-05</v>
+        <v>1.7376E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>2.032E-05</v>
+        <v>1.92E-05</v>
       </c>
       <c r="G8" s="1">
-        <v>4.512E-05</v>
+        <v>4.608000000000001E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>7.894400000000001E-05</v>
+        <v>8.704000000000001E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.00010672</v>
+        <v>0.00010752</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,28 +624,28 @@
         <v>128</v>
       </c>
       <c r="B9" s="1">
-        <v>1.8304E-05</v>
+        <v>1.8432E-05</v>
       </c>
       <c r="C9" s="1">
-        <v>1.8432E-05</v>
+        <v>1.7536E-05</v>
       </c>
       <c r="D9" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="E9" s="1">
         <v>1.8432E-05</v>
       </c>
       <c r="F9" s="1">
-        <v>1.9456E-05</v>
+        <v>2.0416E-05</v>
       </c>
       <c r="G9" s="1">
-        <v>4.512E-05</v>
+        <v>4.7456E-05</v>
       </c>
       <c r="H9" s="1">
-        <v>8.166400000000001E-05</v>
+        <v>8.396800000000001E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>0.000175072</v>
+        <v>0.000175104</v>
       </c>
     </row>
   </sheetData>

--- a/FUNCION HASH/RESULTADOS/target_facil/mining_global_sizes/resultados.xlsx
+++ b/FUNCION HASH/RESULTADOS/target_facil/mining_global_sizes/resultados.xlsx
@@ -421,28 +421,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1.9456E-05</v>
+        <v>2.0288E-05</v>
       </c>
       <c r="C2" s="1">
-        <v>2.0224E-05</v>
+        <v>2.048E-05</v>
       </c>
       <c r="D2" s="1">
-        <v>2.3424E-05</v>
+        <v>2.3552E-05</v>
       </c>
       <c r="E2" s="1">
-        <v>3.8816E-05</v>
+        <v>3.9168E-05</v>
       </c>
       <c r="F2" s="1">
-        <v>4.2784E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="G2" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="H2" s="1">
-        <v>7.168E-05</v>
+        <v>7.3664E-05</v>
       </c>
       <c r="I2" s="1">
-        <v>0.0007486400000000001</v>
+        <v>0.0007484480000000001</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -450,28 +450,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1.9456E-05</v>
+        <v>1.9296E-05</v>
       </c>
       <c r="C3" s="1">
-        <v>2.0256E-05</v>
+        <v>2.032E-05</v>
       </c>
       <c r="D3" s="1">
-        <v>2.048E-05</v>
+        <v>2.1312E-05</v>
       </c>
       <c r="E3" s="1">
-        <v>2.2624E-05</v>
+        <v>2.2528E-05</v>
       </c>
       <c r="F3" s="1">
-        <v>4.4128E-05</v>
+        <v>4.300800000000001E-05</v>
       </c>
       <c r="G3" s="1">
-        <v>4.400000000000001E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="H3" s="1">
         <v>5.0176E-05</v>
       </c>
       <c r="I3" s="1">
-        <v>0.000387872</v>
+        <v>0.000387072</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -479,28 +479,28 @@
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>1.9488E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="C4" s="1">
         <v>1.9456E-05</v>
       </c>
       <c r="D4" s="1">
-        <v>1.8432E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="E4" s="1">
-        <v>2.048E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="F4" s="1">
-        <v>3.9008E-05</v>
+        <v>3.9872E-05</v>
       </c>
       <c r="G4" s="1">
-        <v>4.3712E-05</v>
+        <v>4.2976E-05</v>
       </c>
       <c r="H4" s="1">
-        <v>4.300800000000001E-05</v>
+        <v>4.5024E-05</v>
       </c>
       <c r="I4" s="1">
-        <v>0.000207872</v>
+        <v>0.000208896</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -514,22 +514,22 @@
         <v>1.7408E-05</v>
       </c>
       <c r="D5" s="1">
-        <v>1.712E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="E5" s="1">
-        <v>1.7184E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="F5" s="1">
-        <v>2.2368E-05</v>
+        <v>2.2432E-05</v>
       </c>
       <c r="G5" s="1">
-        <v>4.4032E-05</v>
+        <v>4.1984E-05</v>
       </c>
       <c r="H5" s="1">
-        <v>4.4032E-05</v>
+        <v>4.1728E-05</v>
       </c>
       <c r="I5" s="1">
-        <v>0.00011776</v>
+        <v>0.000116992</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -537,28 +537,28 @@
         <v>16</v>
       </c>
       <c r="B6" s="1">
-        <v>1.7376E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C6" s="1">
-        <v>1.664E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="D6" s="1">
-        <v>1.6672E-05</v>
+        <v>1.7312E-05</v>
       </c>
       <c r="E6" s="1">
-        <v>1.6672E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="F6" s="1">
         <v>1.9456E-05</v>
       </c>
       <c r="G6" s="1">
-        <v>4.7808E-05</v>
+        <v>4.4288E-05</v>
       </c>
       <c r="H6" s="1">
-        <v>4.5056E-05</v>
+        <v>4.384E-05</v>
       </c>
       <c r="I6" s="1">
-        <v>7.372800000000001E-05</v>
+        <v>7.3824E-05</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -566,28 +566,28 @@
         <v>32</v>
       </c>
       <c r="B7" s="1">
-        <v>1.728E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="C7" s="1">
-        <v>1.6384E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="D7" s="1">
-        <v>1.6672E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="E7" s="1">
-        <v>1.7056E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="F7" s="1">
-        <v>1.9392E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="G7" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.4032E-05</v>
       </c>
       <c r="H7" s="1">
+        <v>4.9344E-05</v>
+      </c>
+      <c r="I7" s="1">
         <v>5.4272E-05</v>
-      </c>
-      <c r="I7" s="1">
-        <v>5.536000000000001E-05</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -595,28 +595,28 @@
         <v>64</v>
       </c>
       <c r="B8" s="1">
-        <v>1.7376E-05</v>
+        <v>1.7216E-05</v>
       </c>
       <c r="C8" s="1">
-        <v>1.7216E-05</v>
+        <v>1.6672E-05</v>
       </c>
       <c r="D8" s="1">
         <v>1.7408E-05</v>
       </c>
       <c r="E8" s="1">
-        <v>1.7376E-05</v>
+        <v>1.7408E-05</v>
       </c>
       <c r="F8" s="1">
-        <v>1.92E-05</v>
+        <v>1.9456E-05</v>
       </c>
       <c r="G8" s="1">
-        <v>4.608000000000001E-05</v>
+        <v>4.5056E-05</v>
       </c>
       <c r="H8" s="1">
-        <v>8.704000000000001E-05</v>
+        <v>8.192E-05</v>
       </c>
       <c r="I8" s="1">
-        <v>0.00010752</v>
+        <v>0.000103424</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -624,28 +624,28 @@
         <v>128</v>
       </c>
       <c r="B9" s="1">
+        <v>1.7696E-05</v>
+      </c>
+      <c r="C9" s="1">
         <v>1.8432E-05</v>
       </c>
-      <c r="C9" s="1">
-        <v>1.7536E-05</v>
-      </c>
       <c r="D9" s="1">
-        <v>1.9456E-05</v>
+        <v>1.8496E-05</v>
       </c>
       <c r="E9" s="1">
         <v>1.8432E-05</v>
       </c>
       <c r="F9" s="1">
-        <v>2.0416E-05</v>
+        <v>2.0608E-05</v>
       </c>
       <c r="G9" s="1">
-        <v>4.7456E-05</v>
+        <v>4.2848E-05</v>
       </c>
       <c r="H9" s="1">
-        <v>8.396800000000001E-05</v>
+        <v>8.3168E-05</v>
       </c>
       <c r="I9" s="1">
-        <v>0.000175104</v>
+        <v>0.000172032</v>
       </c>
     </row>
   </sheetData>
